--- a/data/trans_camb/IP19C03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 28,0</t>
+          <t>-3,84; 27,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 33,6</t>
+          <t>-3,62; 31,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 12,45</t>
+          <t>-21,91; 13,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 14,32</t>
+          <t>-15,18; 13,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 20,43</t>
+          <t>-13,5; 23,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 19,16</t>
+          <t>-19,1; 18,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 16,73</t>
+          <t>-4,78; 16,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 23,27</t>
+          <t>-3,04; 22,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 9,49</t>
+          <t>-17,0; 10,16</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 204,7</t>
+          <t>-17,36; 188,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 218,83</t>
+          <t>-15,6; 213,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,33; 89,65</t>
+          <t>-82,28; 89,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,71; 80,56</t>
+          <t>-47,78; 79,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,21; 103,0</t>
+          <t>-47,08; 124,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,7; 99,22</t>
+          <t>-67,98; 114,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 88,46</t>
+          <t>-17,46; 91,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 119,64</t>
+          <t>-13,26; 115,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-60,31; 51,76</t>
+          <t>-60,93; 55,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 9,25</t>
+          <t>-1,97; 9,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 6,97</t>
+          <t>-3,74; 7,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 5,95</t>
+          <t>-4,57; 6,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 4,78</t>
+          <t>-8,14; 4,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 1,09</t>
+          <t>-10,45; 1,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,33; -0,28</t>
+          <t>-12,39; -0,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,71</t>
+          <t>-3,33; 5,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 3,02</t>
+          <t>-6,05; 2,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 1,29</t>
+          <t>-6,93; 1,26</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 64,98</t>
+          <t>-9,98; 68,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 47,69</t>
+          <t>-19,42; 49,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 41,18</t>
+          <t>-24,03; 46,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 23,39</t>
+          <t>-30,92; 21,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,93; 6,3</t>
+          <t>-38,98; 6,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,19; -1,46</t>
+          <t>-47,55; -1,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 32,05</t>
+          <t>-14,69; 29,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 15,92</t>
+          <t>-26,88; 11,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 7,19</t>
+          <t>-29,72; 8,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,84; -0,55</t>
+          <t>-19,42; -0,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 3,97</t>
+          <t>-14,87; 3,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 2,94</t>
+          <t>-14,35; 3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 13,75</t>
+          <t>-3,04; 13,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 5,37</t>
+          <t>-9,32; 5,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 12,68</t>
+          <t>-2,85; 13,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 4,09</t>
+          <t>-7,66; 4,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 2,62</t>
+          <t>-10,16; 2,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 5,84</t>
+          <t>-6,74; 5,33</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,25; -3,17</t>
+          <t>-81,97; -0,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,63; 38,08</t>
+          <t>-67,13; 39,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,38; 26,82</t>
+          <t>-64,03; 33,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 230,42</t>
+          <t>-26,96; 217,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,64; 109,41</t>
+          <t>-67,7; 98,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 222,84</t>
+          <t>-22,95; 240,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,71; 42,16</t>
+          <t>-48,14; 42,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,99; 27,43</t>
+          <t>-59,84; 22,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 60,88</t>
+          <t>-40,61; 56,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 5,76</t>
+          <t>-2,7; 6,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,02</t>
+          <t>-3,79; 5,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,82</t>
+          <t>-5,78; 3,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 4,51</t>
+          <t>-4,67; 4,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 0,95</t>
+          <t>-8,54; 0,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 1,39</t>
+          <t>-8,49; 1,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,18</t>
+          <t>-2,7; 4,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,09</t>
+          <t>-4,72; 1,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 0,73</t>
+          <t>-5,9; 0,59</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 36,8</t>
+          <t>-13,36; 42,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 33,47</t>
+          <t>-19,93; 34,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 19,23</t>
+          <t>-29,5; 22,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 23,79</t>
+          <t>-20,34; 27,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 5,12</t>
+          <t>-36,2; 5,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 7,46</t>
+          <t>-37,8; 7,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 23,78</t>
+          <t>-13,42; 25,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 11,42</t>
+          <t>-22,69; 10,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 4,47</t>
+          <t>-28,99; 3,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>12,5</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>14,96</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,61</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-3,39</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 27,52</t>
+          <t>-13,42; 14,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 31,32</t>
+          <t>-13,02; 25,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 13,86</t>
+          <t>-18,75; 25,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 13,32</t>
+          <t>-2,47; 29,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 23,38</t>
+          <t>-3,72; 33,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 18,1</t>
+          <t>-22,39; 11,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 16,55</t>
+          <t>-3,98; 16,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 22,75</t>
+          <t>-4,12; 22,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 10,16</t>
+          <t>-15,73; 14,34</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14,62%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-2,45%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>56,86%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>68,06%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-29,18%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,62%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,32%</t>
+          <t>-30,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-20,47%</t>
+          <t>-14,5%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 188,07</t>
+          <t>-43,52; 86,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 213,88</t>
+          <t>-45,68; 135,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,28; 89,57</t>
+          <t>-67,56; 168,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 79,98</t>
+          <t>-9,12; 209,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 124,29</t>
+          <t>-13,33; 240,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,98; 114,83</t>
+          <t>-83,35; 89,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 91,82</t>
+          <t>-13,57; 93,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 115,99</t>
+          <t>-12,72; 118,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-60,93; 55,17</t>
+          <t>-58,93; 83,02</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-4,49</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-5,94</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,68</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,38</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-4,49</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 9,51</t>
+          <t>-7,74; 4,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 7,21</t>
+          <t>-11,02; 1,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 6,42</t>
+          <t>-11,75; -0,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 4,44</t>
+          <t>-2,31; 8,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 1,43</t>
+          <t>-4,14; 7,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -0,26</t>
+          <t>-4,84; 6,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 5,4</t>
+          <t>-2,92; 5,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 2,15</t>
+          <t>-5,76; 2,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,26</t>
+          <t>-6,69; 1,76</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-6,66%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-18,99%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-25,12%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>21,64%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>8,11%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-6,66%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-18,99%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,94%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-13,39%</t>
+          <t>-11,31%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 68,96</t>
+          <t>-29,46; 22,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 49,96</t>
+          <t>-40,02; 6,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 46,73</t>
+          <t>-43,57; 1,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 21,75</t>
+          <t>-11,17; 62,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 6,91</t>
+          <t>-21,7; 53,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,55; -1,57</t>
+          <t>-24,81; 49,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 29,09</t>
+          <t>-13,09; 30,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 11,5</t>
+          <t>-26,38; 15,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 8,11</t>
+          <t>-30,61; 9,29</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-9,12</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-5,14</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,42; -0,51</t>
+          <t>-3,98; 13,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 3,8</t>
+          <t>-8,71; 5,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 3,26</t>
+          <t>-2,75; 13,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 13,2</t>
+          <t>-17,38; -0,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 5,55</t>
+          <t>-13,78; 3,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 13,5</t>
+          <t>-14,17; 4,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 4,41</t>
+          <t>-8,8; 3,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 2,04</t>
+          <t>-9,57; 2,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 5,33</t>
+          <t>-5,36; 6,89</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>53,69%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-16,88%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>60,92%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-54,41%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-30,63%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-30,72%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>53,69%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-16,88%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>-27,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,97; -0,25</t>
+          <t>-30,86; 228,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 39,66</t>
+          <t>-66,86; 107,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,03; 33,33</t>
+          <t>-24,57; 227,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 217,15</t>
+          <t>-78,3; 9,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,7; 98,2</t>
+          <t>-65,85; 34,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 240,33</t>
+          <t>-64,65; 36,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 42,84</t>
+          <t>-50,82; 30,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,84; 22,53</t>
+          <t>-57,68; 25,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,61; 56,21</t>
+          <t>-32,93; 72,91</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-3,15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,85</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-3,75</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,32</t>
+          <t>-5,0; 5,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 5,57</t>
+          <t>-8,38; 1,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 3,23</t>
+          <t>-7,88; 1,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,81</t>
+          <t>-3,23; 6,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 0,89</t>
+          <t>-3,74; 4,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 1,28</t>
+          <t>-5,72; 3,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,42</t>
+          <t>-2,32; 4,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,88</t>
+          <t>-4,76; 1,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,59</t>
+          <t>-5,58; 0,9</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-0,47%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-18,06%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-15,17%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>10,57%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>3,69%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-9,48%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-0,47%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-18,06%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>-11,83%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 42,34</t>
+          <t>-22,88; 29,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 34,56</t>
+          <t>-35,96; 6,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 22,03</t>
+          <t>-33,46; 6,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 27,02</t>
+          <t>-16,11; 43,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 5,38</t>
+          <t>-18,81; 29,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 7,29</t>
+          <t>-28,74; 25,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 25,43</t>
+          <t>-11,1; 24,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 10,77</t>
+          <t>-22,96; 10,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 3,22</t>
+          <t>-27,14; 5,49</t>
         </is>
       </c>
     </row>
